--- a/dynamics/src/dynamics/xlsx/task_point.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.047</v>
+        <v>-0.027</v>
       </c>
       <c r="B1" t="n">
-        <v>0.026</v>
+        <v>-0.14</v>
       </c>
       <c r="C1" t="n">
-        <v>0.522</v>
+        <v>0.398</v>
       </c>
       <c r="D1" t="n">
-        <v>99</v>
+        <v>-50</v>
       </c>
       <c r="E1" t="n">
-        <v>-33</v>
+        <v>-55</v>
       </c>
       <c r="F1" t="n">
-        <v>48</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.479</v>
+        <v>0.054</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.141</v>
+        <v>-0.459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.381</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>-62</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.062</v>
+        <v>-0.105</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.307</v>
+        <v>-0.141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.759</v>
+        <v>0.538</v>
       </c>
       <c r="D3" t="n">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="E3" t="n">
-        <v>-11</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>72</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.043</v>
+        <v>0.024</v>
       </c>
       <c r="B4" t="n">
-        <v>0.153</v>
+        <v>-0.241</v>
       </c>
       <c r="C4" t="n">
-        <v>0.496</v>
+        <v>0.58</v>
       </c>
       <c r="D4" t="n">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="E4" t="n">
-        <v>74</v>
+        <v>-47</v>
       </c>
       <c r="F4" t="n">
-        <v>-140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.092</v>
+        <v>-0.372</v>
       </c>
       <c r="B5" t="n">
-        <v>0.008</v>
+        <v>0.02</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281</v>
+        <v>0.289</v>
       </c>
       <c r="D5" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>-2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.378</v>
+        <v>-0.457</v>
       </c>
       <c r="B6" t="n">
-        <v>0.208</v>
+        <v>0.034</v>
       </c>
       <c r="C6" t="n">
-        <v>0.611</v>
+        <v>0.13</v>
       </c>
       <c r="D6" t="n">
-        <v>-32</v>
+        <v>-146</v>
       </c>
       <c r="E6" t="n">
-        <v>76</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="n">
-        <v>123</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.523</v>
+        <v>0.047</v>
       </c>
       <c r="B7" t="n">
-        <v>0.197</v>
+        <v>-0.096</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0.665</v>
       </c>
       <c r="D7" t="n">
-        <v>-150</v>
+        <v>97</v>
       </c>
       <c r="E7" t="n">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>-170</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.354</v>
+        <v>0.012</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.251</v>
+        <v>0.104</v>
       </c>
       <c r="C8" t="n">
-        <v>0.614</v>
+        <v>0.107</v>
       </c>
       <c r="D8" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" t="n">
-        <v>-5</v>
+        <v>70</v>
       </c>
       <c r="F8" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.223</v>
+        <v>-0.073</v>
       </c>
       <c r="B9" t="n">
-        <v>0.194</v>
+        <v>-0.045</v>
       </c>
       <c r="C9" t="n">
-        <v>0.067</v>
+        <v>-0.026</v>
       </c>
       <c r="D9" t="n">
-        <v>-50</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
-        <v>34</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.285</v>
+        <v>0.542</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.168</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.083</v>
       </c>
       <c r="D10" t="n">
-        <v>-60</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="F10" t="n">
-        <v>169</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/task_point.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.027</v>
+        <v>0.139</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.14</v>
+        <v>0.292</v>
       </c>
       <c r="C1" t="n">
-        <v>0.398</v>
+        <v>-0.135</v>
       </c>
       <c r="D1" t="n">
-        <v>-50</v>
+        <v>-66</v>
       </c>
       <c r="E1" t="n">
-        <v>-55</v>
+        <v>29</v>
       </c>
       <c r="F1" t="n">
-        <v>-77</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.054</v>
+        <v>0.181</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.459</v>
+        <v>0.068</v>
       </c>
       <c r="C2" t="n">
-        <v>0.381</v>
+        <v>-0.182</v>
       </c>
       <c r="D2" t="n">
-        <v>111</v>
+        <v>-8</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>-32</v>
       </c>
       <c r="F2" t="n">
-        <v>137</v>
+        <v>-78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.105</v>
+        <v>-0.2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.141</v>
+        <v>0.239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.538</v>
+        <v>0.549</v>
       </c>
       <c r="D3" t="n">
-        <v>156</v>
+        <v>-2</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>-32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.024</v>
+        <v>-0.076</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.241</v>
+        <v>-0.207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.58</v>
+        <v>-0.34</v>
       </c>
       <c r="D4" t="n">
-        <v>154</v>
+        <v>93</v>
       </c>
       <c r="E4" t="n">
-        <v>-47</v>
+        <v>-49</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>-96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.372</v>
+        <v>0.253</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="C5" t="n">
-        <v>0.289</v>
+        <v>0.709</v>
       </c>
       <c r="D5" t="n">
-        <v>100</v>
+        <v>-45</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>64</v>
+        <v>-86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.457</v>
+        <v>0.441</v>
       </c>
       <c r="B6" t="n">
-        <v>0.034</v>
+        <v>0.163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.13</v>
+        <v>0.517</v>
       </c>
       <c r="D6" t="n">
-        <v>-146</v>
+        <v>-127</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>74</v>
       </c>
       <c r="F6" t="n">
-        <v>-104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.047</v>
+        <v>0.341</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.096</v>
+        <v>0.118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.665</v>
+        <v>0.424</v>
       </c>
       <c r="D7" t="n">
-        <v>97</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="F7" t="n">
-        <v>-19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.012</v>
+        <v>0.031</v>
       </c>
       <c r="B8" t="n">
-        <v>0.104</v>
+        <v>0.187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107</v>
+        <v>0.516</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.073</v>
+        <v>-0.08</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.045</v>
+        <v>-0.281</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.026</v>
+        <v>0.163</v>
       </c>
       <c r="D9" t="n">
-        <v>-8</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>-92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.542</v>
+        <v>-0.253</v>
       </c>
       <c r="B10" t="n">
-        <v>0.08699999999999999</v>
+        <v>-0.387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.083</v>
+        <v>0.201</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>-134</v>
       </c>
       <c r="E10" t="n">
-        <v>-11</v>
+        <v>-22</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/task_point.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.139</v>
+        <v>0.343</v>
       </c>
       <c r="B1" t="n">
-        <v>0.292</v>
+        <v>-0.23</v>
       </c>
       <c r="C1" t="n">
-        <v>-0.135</v>
+        <v>0.677</v>
       </c>
       <c r="D1" t="n">
-        <v>-66</v>
+        <v>-84</v>
       </c>
       <c r="E1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F1" t="n">
-        <v>-60</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.181</v>
+        <v>-0.371</v>
       </c>
       <c r="B2" t="n">
-        <v>0.068</v>
+        <v>-0.423</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.182</v>
+        <v>-0.114</v>
       </c>
       <c r="D2" t="n">
-        <v>-8</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>-32</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>-78</v>
+        <v>-113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.2</v>
+        <v>0.589</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239</v>
+        <v>0.133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.549</v>
+        <v>0.008</v>
       </c>
       <c r="D3" t="n">
-        <v>-2</v>
+        <v>-152</v>
       </c>
       <c r="E3" t="n">
-        <v>57</v>
+        <v>-5</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.076</v>
+        <v>-0.589</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.207</v>
+        <v>0.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.34</v>
+        <v>0.141</v>
       </c>
       <c r="D4" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="E4" t="n">
-        <v>-49</v>
+        <v>70</v>
       </c>
       <c r="F4" t="n">
-        <v>-96</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.253</v>
+        <v>-0.124</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04</v>
+        <v>0.574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.709</v>
+        <v>0.062</v>
       </c>
       <c r="D5" t="n">
-        <v>-45</v>
+        <v>146</v>
       </c>
       <c r="E5" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F5" t="n">
-        <v>-86</v>
+        <v>-54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.441</v>
+        <v>0.432</v>
       </c>
       <c r="B6" t="n">
-        <v>0.163</v>
+        <v>-0.033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.517</v>
+        <v>-0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>-127</v>
+        <v>169</v>
       </c>
       <c r="E6" t="n">
-        <v>74</v>
+        <v>-83</v>
       </c>
       <c r="F6" t="n">
-        <v>167</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.341</v>
+        <v>0.125</v>
       </c>
       <c r="B7" t="n">
-        <v>0.118</v>
+        <v>-0.075</v>
       </c>
       <c r="C7" t="n">
-        <v>0.424</v>
+        <v>0.593</v>
       </c>
       <c r="D7" t="n">
-        <v>-5</v>
+        <v>135</v>
       </c>
       <c r="E7" t="n">
-        <v>63</v>
+        <v>-11</v>
       </c>
       <c r="F7" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.031</v>
+        <v>-0.271</v>
       </c>
       <c r="B8" t="n">
-        <v>0.187</v>
+        <v>-0.083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.516</v>
+        <v>0.328</v>
       </c>
       <c r="D8" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.08</v>
+        <v>-0.191</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.281</v>
+        <v>0.316</v>
       </c>
       <c r="C9" t="n">
-        <v>0.163</v>
+        <v>0.542</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>-115</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>64</v>
+        <v>-149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.253</v>
+        <v>-0.123</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.387</v>
+        <v>-0.117</v>
       </c>
       <c r="C10" t="n">
-        <v>0.201</v>
+        <v>0.133</v>
       </c>
       <c r="D10" t="n">
-        <v>-134</v>
+        <v>-41</v>
       </c>
       <c r="E10" t="n">
-        <v>-22</v>
+        <v>-58</v>
       </c>
       <c r="F10" t="n">
-        <v>109</v>
+        <v>-161</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/task_point.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.343</v>
+        <v>0.26</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.23</v>
+        <v>-0.01</v>
       </c>
       <c r="C1" t="n">
-        <v>0.677</v>
+        <v>0.457</v>
       </c>
       <c r="D1" t="n">
-        <v>-84</v>
+        <v>18</v>
       </c>
       <c r="E1" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F1" t="n">
-        <v>-49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.371</v>
+        <v>-0.185</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.423</v>
+        <v>0.027</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.114</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>-174</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>-54</v>
       </c>
       <c r="F2" t="n">
-        <v>-113</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.589</v>
+        <v>-0.237</v>
       </c>
       <c r="B3" t="n">
-        <v>0.133</v>
+        <v>0.239</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008</v>
+        <v>0.164</v>
       </c>
       <c r="D3" t="n">
-        <v>-152</v>
+        <v>-76</v>
       </c>
       <c r="E3" t="n">
-        <v>-5</v>
+        <v>-61</v>
       </c>
       <c r="F3" t="n">
-        <v>159</v>
+        <v>-166</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.589</v>
+        <v>-0.058</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04</v>
+        <v>0.345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.141</v>
+        <v>0.455</v>
       </c>
       <c r="D4" t="n">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>-146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.124</v>
+        <v>-0.043</v>
       </c>
       <c r="B5" t="n">
-        <v>0.574</v>
+        <v>-0.335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.062</v>
+        <v>0.376</v>
       </c>
       <c r="D5" t="n">
-        <v>146</v>
+        <v>-87</v>
       </c>
       <c r="E5" t="n">
-        <v>63</v>
+        <v>-1</v>
       </c>
       <c r="F5" t="n">
-        <v>-54</v>
+        <v>-98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.432</v>
+        <v>-0.142</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.033</v>
+        <v>0.103</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1</v>
+        <v>0.554</v>
       </c>
       <c r="D6" t="n">
-        <v>169</v>
+        <v>-64</v>
       </c>
       <c r="E6" t="n">
-        <v>-83</v>
+        <v>-64</v>
       </c>
       <c r="F6" t="n">
-        <v>57</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.125</v>
+        <v>-0.097</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.075</v>
+        <v>0.041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.593</v>
+        <v>-0.08599999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>135</v>
+        <v>-178</v>
       </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>105</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.271</v>
+        <v>-0.193</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.083</v>
+        <v>-0.183</v>
       </c>
       <c r="C8" t="n">
-        <v>0.328</v>
+        <v>0.304</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>87</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.191</v>
+        <v>-0.438</v>
       </c>
       <c r="B9" t="n">
-        <v>0.316</v>
+        <v>0.108</v>
       </c>
       <c r="C9" t="n">
-        <v>0.542</v>
+        <v>0.053</v>
       </c>
       <c r="D9" t="n">
-        <v>-115</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>-62</v>
       </c>
       <c r="F9" t="n">
-        <v>-149</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.123</v>
+        <v>-0.142</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.117</v>
+        <v>-0.014</v>
       </c>
       <c r="C10" t="n">
-        <v>0.133</v>
+        <v>0.503</v>
       </c>
       <c r="D10" t="n">
-        <v>-41</v>
+        <v>111</v>
       </c>
       <c r="E10" t="n">
-        <v>-58</v>
+        <v>-24</v>
       </c>
       <c r="F10" t="n">
-        <v>-161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/dynamics/src/dynamics/xlsx/task_point.xlsx
+++ b/dynamics/src/dynamics/xlsx/task_point.xlsx
@@ -423,202 +423,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.26</v>
+        <v>-0.312</v>
       </c>
       <c r="B1" t="n">
-        <v>-0.01</v>
+        <v>-0.569</v>
       </c>
       <c r="C1" t="n">
-        <v>0.457</v>
+        <v>0.45</v>
       </c>
       <c r="D1" t="n">
-        <v>18</v>
+        <v>-18</v>
       </c>
       <c r="E1" t="n">
-        <v>8</v>
+        <v>-44</v>
       </c>
       <c r="F1" t="n">
-        <v>13</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.185</v>
+        <v>0.737</v>
       </c>
       <c r="B2" t="n">
-        <v>0.027</v>
+        <v>-0.111</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.385</v>
       </c>
       <c r="D2" t="n">
-        <v>-174</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
-        <v>-54</v>
+        <v>-59</v>
       </c>
       <c r="F2" t="n">
-        <v>-9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.237</v>
+        <v>0.451</v>
       </c>
       <c r="B3" t="n">
-        <v>0.239</v>
+        <v>0.021</v>
       </c>
       <c r="C3" t="n">
-        <v>0.164</v>
+        <v>0.459</v>
       </c>
       <c r="D3" t="n">
-        <v>-76</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>-61</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>-166</v>
+        <v>-143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.058</v>
+        <v>0.101</v>
       </c>
       <c r="B4" t="n">
-        <v>0.345</v>
+        <v>-0.005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.455</v>
+        <v>0.512</v>
       </c>
       <c r="D4" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>-64</v>
       </c>
       <c r="F4" t="n">
-        <v>134</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.043</v>
+        <v>-0.417</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.335</v>
+        <v>-0.051</v>
       </c>
       <c r="C5" t="n">
-        <v>0.376</v>
+        <v>0.787</v>
       </c>
       <c r="D5" t="n">
-        <v>-87</v>
+        <v>123</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="F5" t="n">
-        <v>-98</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.142</v>
+        <v>-0.03</v>
       </c>
       <c r="B6" t="n">
-        <v>0.103</v>
+        <v>-0.04</v>
       </c>
       <c r="C6" t="n">
-        <v>0.554</v>
+        <v>-0.006</v>
       </c>
       <c r="D6" t="n">
-        <v>-64</v>
+        <v>-37</v>
       </c>
       <c r="E6" t="n">
-        <v>-64</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>-40</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.097</v>
+        <v>0.008</v>
       </c>
       <c r="B7" t="n">
-        <v>0.041</v>
+        <v>0.029</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.08599999999999999</v>
+        <v>-0.265</v>
       </c>
       <c r="D7" t="n">
-        <v>-178</v>
+        <v>-107</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>-18</v>
       </c>
       <c r="F7" t="n">
-        <v>-15</v>
+        <v>-165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.193</v>
+        <v>0.446</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.183</v>
+        <v>0.487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.304</v>
+        <v>0.494</v>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>-64</v>
       </c>
       <c r="F8" t="n">
-        <v>54</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.438</v>
+        <v>0.279</v>
       </c>
       <c r="B9" t="n">
-        <v>0.108</v>
+        <v>-0.179</v>
       </c>
       <c r="C9" t="n">
-        <v>0.053</v>
+        <v>-0.027</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="E9" t="n">
-        <v>-62</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>-105</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.142</v>
+        <v>-0.347</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.014</v>
+        <v>0.275</v>
       </c>
       <c r="C10" t="n">
-        <v>0.503</v>
+        <v>0.432</v>
       </c>
       <c r="D10" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
-        <v>-24</v>
+        <v>-48</v>
       </c>
       <c r="F10" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
